--- a/app/static/configuration.xlsx
+++ b/app/static/configuration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Catégorie" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="Produit biologique" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Cadre de receuille" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Origine" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Temperature" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="131">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -403,6 +404,21 @@
   </si>
   <si>
     <t xml:space="preserve">Végétale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+18°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+4°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-80°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-196°C</t>
   </si>
 </sst>
 </file>
@@ -453,7 +469,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -477,10 +493,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -492,14 +504,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 5" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -512,7 +523,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A2:A6 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -557,7 +568,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -809,7 +820,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -880,7 +891,7 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1251,12 +1262,12 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -1316,8 +1327,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1373,4 +1384,64 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>